--- a/converging_section/converge_geom.xlsx
+++ b/converging_section/converge_geom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVB\Homes$\zhaoqido\Documents\APS 490\Nozzle Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVB\Homes$\zhaoqido\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,16 +21,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
+    <t xml:space="preserve">Upper </t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>Down</t>
-  </si>
-  <si>
-    <t>Up</t>
+    <t>Lower</t>
   </si>
 </sst>
 </file>
@@ -837,636 +837,606 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>-0.55990114599999996</v>
+        <v>4.2519685000000002E-2</v>
       </c>
       <c r="C2">
-        <v>-6.8989758999999998E-2</v>
+        <v>1.0629921259999999</v>
       </c>
       <c r="E2">
-        <v>-0.582865262</v>
+        <v>4.2519685000000002E-2</v>
       </c>
       <c r="F2">
-        <v>8.8915102999999995E-2</v>
+        <v>0.95677905900000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>-0.53076316000000001</v>
+        <v>1.433647E-2</v>
       </c>
       <c r="C3">
-        <v>-6.8989758999999998E-2</v>
+        <v>1.1030401030000001</v>
       </c>
       <c r="E3">
-        <v>-0.55225146400000003</v>
+        <v>3.9297776999999999E-2</v>
       </c>
       <c r="F3">
-        <v>8.8915102999999995E-2</v>
+        <v>0.96137466999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>-0.50495522900000001</v>
+        <v>-2.0942257999999998E-2</v>
       </c>
       <c r="C4">
-        <v>-6.8989758999999998E-2</v>
+        <v>1.1538384180000001</v>
       </c>
       <c r="E4">
-        <v>-0.52467876999999996</v>
+        <v>3.5526228E-2</v>
       </c>
       <c r="F4">
-        <v>8.8915102999999995E-2</v>
+        <v>0.96665483900000004</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>-0.47581724199999997</v>
+        <v>-5.9144862999999999E-2</v>
       </c>
       <c r="C5">
-        <v>-6.8989758999999998E-2</v>
+        <v>1.2073220650000001</v>
       </c>
       <c r="E5">
-        <v>-0.49215877099999999</v>
+        <v>3.0623213E-2</v>
       </c>
       <c r="F5">
-        <v>8.8915102999999995E-2</v>
+        <v>0.974575093</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>-0.44917679700000002</v>
+        <v>-0.13308576899999999</v>
       </c>
       <c r="C6">
-        <v>-6.8989758999999998E-2</v>
+        <v>1.3124672639999999</v>
       </c>
       <c r="E6">
-        <v>-0.461284413</v>
+        <v>2.6851664000000001E-2</v>
       </c>
       <c r="F6">
-        <v>8.8915102999999995E-2</v>
+        <v>0.98155245899999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>-0.41421121300000002</v>
+        <v>-0.20613701400000001</v>
       </c>
       <c r="C7">
-        <v>-6.8989758999999998E-2</v>
+        <v>1.4158897640000001</v>
       </c>
       <c r="E7">
-        <v>-0.43222619400000001</v>
+        <v>2.2891537E-2</v>
       </c>
       <c r="F7">
-        <v>8.8915102999999995E-2</v>
+        <v>0.98947271299999995</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>-0.42488513700000002</v>
+        <v>-0.43081033499999999</v>
       </c>
       <c r="C8">
-        <v>-6.8989758999999998E-2</v>
+        <v>1.4158897640000001</v>
       </c>
       <c r="E8">
-        <v>-0.41134821799999999</v>
+        <v>1.7799945000000001E-2</v>
       </c>
       <c r="F8">
-        <v>9.0258673999999997E-2</v>
+        <v>0.99965589700000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>-0.39090082399999998</v>
+        <v>-0.61270137800000002</v>
       </c>
       <c r="C9">
-        <v>-5.9874937000000003E-2</v>
+        <v>1.4158897640000001</v>
       </c>
       <c r="E9">
-        <v>-0.39580441199999999</v>
+        <v>1.3085507999999999E-2</v>
       </c>
       <c r="F9">
-        <v>9.4758197000000002E-2</v>
+        <v>1.009273348</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>-0.37444334499999998</v>
+        <v>-0.897719088</v>
       </c>
       <c r="C10">
-        <v>-5.0476064000000001E-2</v>
+        <v>1.4158897640000001</v>
       </c>
       <c r="E10">
-        <v>-0.38176044799999997</v>
+        <v>9.2523789999999998E-3</v>
       </c>
       <c r="F10">
-        <v>0.102257401</v>
+        <v>1.021290743</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>-0.35843278200000001</v>
+        <v>-1.320201065</v>
       </c>
       <c r="C11">
-        <v>-3.8229576000000001E-2</v>
+        <v>1.4158897640000001</v>
       </c>
       <c r="E11">
-        <v>-0.36948902300000003</v>
+        <v>6.9421939999999996E-3</v>
       </c>
       <c r="F11">
-        <v>0.11248358899999999</v>
+        <v>1.028661332</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>-0.34971173999999999</v>
+        <v>-2.0383011930000001</v>
       </c>
       <c r="C12">
-        <v>-3.1348032999999997E-2</v>
+        <v>1.4158897640000001</v>
       </c>
       <c r="E12">
-        <v>-0.35843278200000001</v>
+        <v>4.411992E-3</v>
       </c>
       <c r="F12">
-        <v>0.122680818</v>
+        <v>1.036691974</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>-0.34296150800000003</v>
+        <v>-2.742356799</v>
       </c>
       <c r="C13">
-        <v>-2.6097852000000001E-2</v>
+        <v>1.4158897640000001</v>
       </c>
       <c r="E13">
-        <v>-0.347306481</v>
+        <v>1.9917989999999998E-3</v>
       </c>
       <c r="F13">
-        <v>0.13431305900000001</v>
+        <v>1.0439525540000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>-0.33506892199999999</v>
+        <v>-3.4890107530000001</v>
       </c>
       <c r="C14">
-        <v>-2.0847671000000002E-2</v>
+        <v>1.4158897640000001</v>
       </c>
       <c r="E14">
-        <v>-0.33506892199999999</v>
+        <v>-8.6843E-4</v>
       </c>
       <c r="F14">
-        <v>0.14742527799999999</v>
+        <v>1.052093205</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>-0.32833600400000001</v>
-      </c>
-      <c r="C15">
-        <v>-1.5034970999999999E-2</v>
-      </c>
       <c r="E15">
-        <v>-0.32569118699999999</v>
+        <v>-3.398632E-3</v>
       </c>
       <c r="F15">
-        <v>0.156917786</v>
+        <v>1.0589137500000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>-0.32252330400000001</v>
-      </c>
-      <c r="C16">
-        <v>-9.5972839999999993E-3</v>
-      </c>
       <c r="E16">
-        <v>-0.31709073599999998</v>
+        <v>-8.7890629999999997E-3</v>
       </c>
       <c r="F16">
-        <v>0.16517325299999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>-0.315023045</v>
-      </c>
-      <c r="C17">
-        <v>-3.0345580000000001E-3</v>
-      </c>
+        <v>1.06716441</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17">
-        <v>-0.30757696200000001</v>
+        <v>-1.5216772E-2</v>
       </c>
       <c r="F17">
-        <v>0.1749559</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>-0.309210345</v>
-      </c>
-      <c r="C18">
-        <v>1.4655969999999999E-3</v>
-      </c>
+        <v>1.0729492549999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18">
-        <v>-0.296388765</v>
+        <v>-2.4644564000000001E-2</v>
       </c>
       <c r="F18">
-        <v>0.18629631899999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>-0.302272606</v>
-      </c>
-      <c r="C19">
-        <v>7.0907909999999999E-3</v>
-      </c>
+        <v>1.079009978</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19">
-        <v>-0.28685436600000003</v>
+        <v>-3.3847885000000001E-2</v>
       </c>
       <c r="F19">
-        <v>0.19587823200000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>-0.29570987999999998</v>
-      </c>
-      <c r="C20">
-        <v>1.3278504E-2</v>
-      </c>
+        <v>1.0821525759999999</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20">
-        <v>-0.27525274300000002</v>
+        <v>-4.6399904999999998E-2</v>
       </c>
       <c r="F20">
-        <v>0.20729273200000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>-0.288209622</v>
-      </c>
-      <c r="C21">
-        <v>1.9278711E-2</v>
-      </c>
+        <v>1.082872654</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21">
-        <v>-0.26458673500000002</v>
+        <v>-5.7041919000000003E-2</v>
       </c>
       <c r="F21">
-        <v>0.217771617</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>-0.27939681799999999</v>
-      </c>
-      <c r="C22">
-        <v>2.7153982E-2</v>
-      </c>
+        <v>1.082872654</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22">
-        <v>-0.254107851</v>
+        <v>-7.0773551000000004E-2</v>
       </c>
       <c r="F22">
-        <v>0.22825050199999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>-0.26983698900000003</v>
-      </c>
-      <c r="C23">
-        <v>3.6233044999999998E-2</v>
-      </c>
+        <v>1.080469619</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23">
-        <v>-0.244564118</v>
+        <v>-8.5878344999999995E-2</v>
       </c>
       <c r="F23">
-        <v>0.23741952699999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>-0.25622852000000002</v>
-      </c>
-      <c r="C24">
-        <v>4.8221458000000002E-2</v>
-      </c>
+        <v>1.077723293</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24">
-        <v>-0.233140973</v>
+        <v>-9.7550232000000001E-2</v>
       </c>
       <c r="F24">
-        <v>0.249021149</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>-0.244564118</v>
-      </c>
-      <c r="C25">
-        <v>6.0857893000000003E-2</v>
-      </c>
+        <v>1.0746336750000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25">
-        <v>-0.22062931</v>
+        <v>-0.112311736</v>
       </c>
       <c r="F25">
-        <v>0.26252468899999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>-0.233140973</v>
-      </c>
-      <c r="C26">
-        <v>7.1634505000000001E-2</v>
-      </c>
+        <v>1.0684544410000001</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26">
-        <v>-0.21120392900000001</v>
+        <v>-0.123983623</v>
       </c>
       <c r="F26">
-        <v>0.27287183999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>-0.223801483</v>
-      </c>
-      <c r="C27">
-        <v>8.1899178000000003E-2</v>
-      </c>
+        <v>1.062618498</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27">
-        <v>-0.199072951</v>
+        <v>-0.13771525500000001</v>
       </c>
       <c r="F27">
-        <v>0.28354233899999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>-0.21120392900000001</v>
-      </c>
-      <c r="C28">
-        <v>9.3097003999999997E-2</v>
-      </c>
+        <v>1.055409391</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28">
-        <v>-0.18603102599999999</v>
+        <v>-0.15007372299999999</v>
       </c>
       <c r="F28">
-        <v>0.29550623100000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>-0.199072951</v>
-      </c>
-      <c r="C29">
-        <v>0.106161134</v>
-      </c>
+        <v>1.046827121</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29">
-        <v>-0.176833453</v>
+        <v>-0.160372447</v>
       </c>
       <c r="F29">
-        <v>0.30326730099999999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>-0.188341701</v>
-      </c>
-      <c r="C30">
-        <v>0.11782553599999999</v>
-      </c>
+        <v>1.039274724</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30">
-        <v>-0.16933804499999999</v>
+        <v>-0.17032787999999999</v>
       </c>
       <c r="F30">
-        <v>0.309191092</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>-0.18096262099999999</v>
-      </c>
-      <c r="C31">
-        <v>0.12522354399999999</v>
-      </c>
+        <v>1.029662582</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E31">
-        <v>-0.16141950799999999</v>
+        <v>-0.17992883600000001</v>
       </c>
       <c r="F31">
-        <v>0.31493354200000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>-0.17388062700000001</v>
-      </c>
-      <c r="C32">
-        <v>0.13303189600000001</v>
-      </c>
+        <v>1.020419239</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32">
-        <v>-0.15422633399999999</v>
+        <v>-0.188904459</v>
       </c>
       <c r="F32">
-        <v>0.31874169299999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>-0.16661704399999999</v>
-      </c>
-      <c r="C33">
-        <v>0.14047706900000001</v>
-      </c>
+        <v>1.0117331519999999</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33">
-        <v>-0.14252879900000001</v>
+        <v>-0.19527425600000001</v>
       </c>
       <c r="F33">
-        <v>0.32503949599999998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>-0.15971663999999999</v>
-      </c>
-      <c r="C34">
-        <v>0.14864859999999999</v>
-      </c>
+        <v>1.004784283</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34">
-        <v>-0.12594097700000001</v>
+        <v>-0.20251266100000001</v>
       </c>
       <c r="F34">
-        <v>0.33232051899999998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>-0.151363519</v>
-      </c>
-      <c r="C35">
-        <v>0.15754649000000001</v>
-      </c>
+        <v>0.99754587800000005</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35">
-        <v>-0.13404854899999999</v>
+        <v>-0.20859292099999999</v>
       </c>
       <c r="F35">
-        <v>0.32940810999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>-0.14409993500000001</v>
-      </c>
-      <c r="C36">
-        <v>0.16517325299999999</v>
-      </c>
+        <v>0.99146561700000002</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36">
-        <v>-0.114860913</v>
+        <v>-0.21467318199999999</v>
       </c>
       <c r="F36">
-        <v>0.33574688200000002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>-0.13774429999999999</v>
-      </c>
-      <c r="C37">
-        <v>0.17152888799999999</v>
-      </c>
+        <v>0.985674893</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37">
-        <v>-0.10535275400000001</v>
+        <v>-0.22162205099999999</v>
       </c>
       <c r="F37">
-        <v>0.33831665500000002</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>-0.13229661200000001</v>
-      </c>
-      <c r="C38">
-        <v>0.177521345</v>
-      </c>
+        <v>0.97872602399999997</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38">
-        <v>-9.3017844000000002E-2</v>
+        <v>-0.23088721000000001</v>
       </c>
       <c r="F38">
-        <v>0.34020115499999998</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>-0.12594097700000001</v>
-      </c>
-      <c r="C39">
-        <v>0.18424015899999999</v>
-      </c>
+        <v>0.96975040099999998</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39">
-        <v>-8.0559213000000005E-2</v>
+        <v>-0.23783607900000001</v>
       </c>
       <c r="F39">
-        <v>0.34221077900000002</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>-0.117517385</v>
-      </c>
-      <c r="C40">
-        <v>0.19339049999999999</v>
-      </c>
+        <v>0.96251199600000004</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40">
-        <v>-6.7157977999999993E-2</v>
+        <v>-0.24796984699999999</v>
       </c>
       <c r="F40">
-        <v>0.34274563899999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>-0.109416324</v>
-      </c>
-      <c r="C41">
-        <v>0.199856864</v>
-      </c>
+        <v>0.95237822800000005</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41">
-        <v>-5.3769149000000002E-2</v>
+        <v>-0.25636639700000002</v>
       </c>
       <c r="F41">
-        <v>0.34100509099999998</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>-9.9973666000000003E-2</v>
-      </c>
-      <c r="C42">
-        <v>0.20239911799999999</v>
-      </c>
+        <v>0.94485028699999996</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42">
-        <v>-4.5233770999999999E-2</v>
+        <v>-0.26302573000000001</v>
       </c>
       <c r="F42">
-        <v>0.33765788400000002</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>-9.0349418000000001E-2</v>
-      </c>
-      <c r="C43">
-        <v>0.198404147</v>
-      </c>
+        <v>0.93819095399999997</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43">
-        <v>-3.8204636E-2</v>
+        <v>-0.27142228000000002</v>
       </c>
       <c r="F43">
-        <v>0.33313915399999999</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>-8.3630602999999998E-2</v>
-      </c>
-      <c r="C44">
-        <v>0.188779899</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>-7.9090862999999997E-2</v>
-      </c>
-      <c r="C45">
-        <v>0.17988200900000001</v>
+        <v>0.93037347599999998</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>-0.280397903</v>
+      </c>
+      <c r="F44">
+        <v>0.92168738900000002</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>-0.290821206</v>
+      </c>
+      <c r="F45">
+        <v>0.91126408599999997</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>-0.29805961199999997</v>
+      </c>
+      <c r="F46">
+        <v>0.90489428900000002</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>-0.30848291500000002</v>
+      </c>
+      <c r="F47">
+        <v>0.89533959399999996</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>-0.31716900199999998</v>
+      </c>
+      <c r="F48">
+        <v>0.88781165200000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>-0.32382833500000002</v>
+      </c>
+      <c r="F49">
+        <v>0.88202092799999998</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>-0.33135627600000001</v>
+      </c>
+      <c r="F50">
+        <v>0.87507205899999996</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>-0.33743653699999998</v>
+      </c>
+      <c r="F51">
+        <v>0.869860407</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>-0.34351679699999998</v>
+      </c>
+      <c r="F52">
+        <v>0.86464875500000005</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>-0.35162381100000001</v>
+      </c>
+      <c r="F53">
+        <v>0.86030571199999994</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>-0.36696350900000002</v>
+      </c>
+      <c r="F54">
+        <v>0.85691813299999997</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>-0.43898398199999999</v>
+      </c>
+      <c r="F55">
+        <v>0.85691815000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>-0.66303869100000001</v>
+      </c>
+      <c r="F56">
+        <v>0.85691815000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>-0.91623872799999995</v>
+      </c>
+      <c r="F57">
+        <v>0.85691815000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>-1.1543650839999999</v>
+      </c>
+      <c r="F58">
+        <v>0.85691815000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>-1.1543650839999999</v>
+      </c>
+      <c r="F59">
+        <v>0.95534334600000004</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>-1.320201065</v>
+      </c>
+      <c r="F60">
+        <v>0.95677905900000004</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>-2.0383011930000001</v>
+      </c>
+      <c r="F61">
+        <v>0.95677905900000004</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>-2.742356799</v>
+      </c>
+      <c r="F62">
+        <v>0.95677905900000004</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>-3.4664625689999999</v>
+      </c>
+      <c r="F63">
+        <v>0.95677905900000004</v>
       </c>
     </row>
   </sheetData>

--- a/converging_section/converge_geom.xlsx
+++ b/converging_section/converge_geom.xlsx
@@ -5,32 +5,30 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVB\Homes$\zhaoqido\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SRVA\Homes$\yushi2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">Upper </t>
+    <t>x (mm)</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Copper nozzle y (mm)</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Lower</t>
+    <t>graphite chamber y (mm)</t>
   </si>
 </sst>
 </file>
@@ -574,6 +572,1870 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper nozzle y (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>-39.229059675000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-35.993392782999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-33.676949440000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.320873134999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-29.320873134999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12.826221316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.2864914689999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.8514507760000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.5398675760000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.2378563570000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.9980239859999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.7747317789999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.5156025509999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.3060938130000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.1076118519999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.9422102170000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.7823219689999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.6315113730000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.4304793790000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.1642981280000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.9037010990000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.6673023660000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.4867458530000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.2993702669999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.1413872569999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.027045963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.8996121529999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.7800338529999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.7365447840000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.6882168149999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.6493186939999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.5962758020000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.553252123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.5119965400000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.4695622269999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.4342002989999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.3953021779999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.355814691</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.3205645480000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4.2941401179999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.2633116150000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.2231244600000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.1900939209999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.1598159270000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.1043032960000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.0673110389999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.037129073</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.9984342439999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.9663175349999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.9197871119999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.8801845190000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.8413435140000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.7933634490000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.7480489430000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.6787139419999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.5736951760000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.4734140980000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.3187313559999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.1549505309999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.006058871</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.8842384230000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.5180004669999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.2271999739999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.93639948</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.5184941350000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.210645932</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.86742427499999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.585391463</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.38418817799999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.169924099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-4.1633846000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>25.276753228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.276753228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.276753228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.265720999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.765720570999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.765720570999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.765720570999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.765720570999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.765720570999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.765720570999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.88768628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.122843411000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.388151754999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.605930573999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.804412536000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.035974825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.220673316999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23.416398585</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.581800220000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.733418386</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.880548566000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.075996337999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.340316181999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.595328988999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.828004908</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.004838606</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.188466826999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.347322672000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.461663966</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25.589970610000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25.709548909999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25.753137659</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.799697531</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.836827554999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.888102351000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.928768567999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>25.967077324000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.007743541</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>26.042516104000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.079646128</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.115008056000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.149278803000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.174602215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.203779190999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>26.241764311000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26.273418577000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.302870807000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>26.355538383999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.390354057</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>26.419375177999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.455361368999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.486317233000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26.530486353000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.557522738999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>26.583416742000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.615022658000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26.645486191</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>26.691218352</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>26.761494067000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26.830190553000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26.932753134999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27.015320328000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27.084351914999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.141201458000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27.27328207</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.3618703</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.438903542999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.483197658000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27.515859531</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.489556822000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>27.391431619999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>27.261633222</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>27.035708512999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26.807791585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C315-44C7-A807-E9619E9A79EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>graphite chamber y (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>-39.229059675000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-35.993392782999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-33.676949440000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-29.320873134999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-29.320873134999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12.826221316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.2864914689999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.8514507760000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.5398675760000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.2378563570000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.9980239859999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.7747317789999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7.5156025509999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.3060938130000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.1076118519999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.9422102170000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.7823219689999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.6315113730000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.4304793790000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.1642981280000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.9037010990000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.6673023660000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.4867458530000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.2993702669999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.1413872569999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5.027045963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.8996121529999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.7800338529999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.7365447840000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.6882168149999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.6493186939999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.5962758020000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.553252123</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.5119965400000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.4695622269999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4.4342002989999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.3953021779999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-4.355814691</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-4.3205645480000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4.2941401179999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.2633116150000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.2231244600000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.1900939209999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-4.1598159270000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-4.1043032960000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.0673110389999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.037129073</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.9984342439999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.9663175349999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-3.9197871119999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.8801845190000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.8413435140000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.7933634490000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-3.7480489430000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.6787139419999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.5736951760000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.4734140980000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.3187313559999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.1549505309999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.006058871</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.8842384230000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.5180004669999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.2271999739999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.93639948</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.5184941350000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.210645932</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.86742427499999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.585391463</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.38418817799999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.169924099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-4.1633846000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>32.970912142000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.970912142000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.970912142000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.970912142000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33.964573586999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.961623560342098</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>32.239967738032597</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31.471466765883299</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.011328115448197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C315-44C7-A807-E9619E9A79EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="553451640"/>
+        <c:axId val="553450984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="553451640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553450984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="553450984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553451640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -837,15 +2699,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,591 +2721,827 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-39.229059675000002</v>
+      </c>
       <c r="B2">
-        <v>4.2519685000000002E-2</v>
+        <v>25.276753228</v>
       </c>
       <c r="C2">
-        <v>1.0629921259999999</v>
-      </c>
-      <c r="E2">
-        <v>4.2519685000000002E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.95677905900000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.970912142000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-35.993392782999997</v>
+      </c>
       <c r="B3">
-        <v>1.433647E-2</v>
+        <v>25.276753228</v>
       </c>
       <c r="C3">
-        <v>1.1030401030000001</v>
-      </c>
-      <c r="E3">
-        <v>3.9297776999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.96137466999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.970912142000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-33.676949440000001</v>
+      </c>
       <c r="B4">
-        <v>-2.0942257999999998E-2</v>
+        <v>25.276753228</v>
       </c>
       <c r="C4">
-        <v>1.1538384180000001</v>
-      </c>
-      <c r="E4">
-        <v>3.5526228E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.96665483900000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.970912142000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-29.320873134999999</v>
+      </c>
       <c r="B5">
-        <v>-5.9144862999999999E-2</v>
+        <v>25.265720999999999</v>
       </c>
       <c r="C5">
-        <v>1.2073220650000001</v>
-      </c>
-      <c r="E5">
-        <v>3.0623213E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.974575093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32.970912142000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-29.320873134999999</v>
+      </c>
       <c r="B6">
-        <v>-0.13308576899999999</v>
+        <v>21.765720570999999</v>
       </c>
       <c r="C6">
-        <v>1.3124672639999999</v>
-      </c>
-      <c r="E6">
-        <v>2.6851664000000001E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.98155245899999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-25</v>
+      </c>
       <c r="B7">
-        <v>-0.20613701400000001</v>
+        <v>21.765720570999999</v>
       </c>
       <c r="C7">
-        <v>1.4158897640000001</v>
-      </c>
-      <c r="E7">
-        <v>2.2891537E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.98947271299999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-20</v>
+      </c>
       <c r="B8">
-        <v>-0.43081033499999999</v>
+        <v>21.765720570999999</v>
       </c>
       <c r="C8">
-        <v>1.4158897640000001</v>
-      </c>
-      <c r="E8">
-        <v>1.7799945000000001E-2</v>
-      </c>
-      <c r="F8">
-        <v>0.99965589700000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-15</v>
+      </c>
       <c r="B9">
-        <v>-0.61270137800000002</v>
+        <v>21.765720570999999</v>
       </c>
       <c r="C9">
-        <v>1.4158897640000001</v>
-      </c>
-      <c r="E9">
-        <v>1.3085507999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.009273348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-12.826221316</v>
+      </c>
       <c r="B10">
-        <v>-0.897719088</v>
+        <v>21.765720570999999</v>
       </c>
       <c r="C10">
-        <v>1.4158897640000001</v>
-      </c>
-      <c r="E10">
-        <v>9.2523789999999998E-3</v>
-      </c>
-      <c r="F10">
-        <v>1.021290743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-9.2864914689999996</v>
+      </c>
       <c r="B11">
-        <v>-1.320201065</v>
+        <v>21.765720570999999</v>
       </c>
       <c r="C11">
-        <v>1.4158897640000001</v>
-      </c>
-      <c r="E11">
-        <v>6.9421939999999996E-3</v>
-      </c>
-      <c r="F11">
-        <v>1.028661332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-8.8514507760000001</v>
+      </c>
       <c r="B12">
-        <v>-2.0383011930000001</v>
+        <v>21.88768628</v>
       </c>
       <c r="C12">
-        <v>1.4158897640000001</v>
-      </c>
-      <c r="E12">
-        <v>4.411992E-3</v>
-      </c>
-      <c r="F12">
-        <v>1.036691974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-8.5398675760000007</v>
+      </c>
       <c r="B13">
-        <v>-2.742356799</v>
+        <v>22.122843411000002</v>
       </c>
       <c r="C13">
-        <v>1.4158897640000001</v>
-      </c>
-      <c r="E13">
-        <v>1.9917989999999998E-3</v>
-      </c>
-      <c r="F13">
-        <v>1.0439525540000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-8.2378563570000001</v>
+      </c>
       <c r="B14">
-        <v>-3.4890107530000001</v>
+        <v>22.388151754999999</v>
       </c>
       <c r="C14">
-        <v>1.4158897640000001</v>
-      </c>
-      <c r="E14">
-        <v>-8.6843E-4</v>
-      </c>
-      <c r="F14">
-        <v>1.052093205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15">
-        <v>-3.398632E-3</v>
-      </c>
-      <c r="F15">
-        <v>1.0589137500000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <v>-8.7890629999999997E-3</v>
-      </c>
-      <c r="F16">
-        <v>1.06716441</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <v>-1.5216772E-2</v>
-      </c>
-      <c r="F17">
-        <v>1.0729492549999999</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18">
-        <v>-2.4644564000000001E-2</v>
-      </c>
-      <c r="F18">
-        <v>1.079009978</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <v>-3.3847885000000001E-2</v>
-      </c>
-      <c r="F19">
-        <v>1.0821525759999999</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20">
-        <v>-4.6399904999999998E-2</v>
-      </c>
-      <c r="F20">
-        <v>1.082872654</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21">
-        <v>-5.7041919000000003E-2</v>
-      </c>
-      <c r="F21">
-        <v>1.082872654</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22">
-        <v>-7.0773551000000004E-2</v>
-      </c>
-      <c r="F22">
-        <v>1.080469619</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23">
-        <v>-8.5878344999999995E-2</v>
-      </c>
-      <c r="F23">
-        <v>1.077723293</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <v>-9.7550232000000001E-2</v>
-      </c>
-      <c r="F24">
-        <v>1.0746336750000001</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <v>-0.112311736</v>
-      </c>
-      <c r="F25">
-        <v>1.0684544410000001</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26">
-        <v>-0.123983623</v>
-      </c>
-      <c r="F26">
-        <v>1.062618498</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27">
-        <v>-0.13771525500000001</v>
-      </c>
-      <c r="F27">
-        <v>1.055409391</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>-0.15007372299999999</v>
-      </c>
-      <c r="F28">
-        <v>1.046827121</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29">
-        <v>-0.160372447</v>
-      </c>
-      <c r="F29">
-        <v>1.039274724</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>-0.17032787999999999</v>
-      </c>
-      <c r="F30">
-        <v>1.029662582</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31">
-        <v>-0.17992883600000001</v>
-      </c>
-      <c r="F31">
-        <v>1.020419239</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32">
-        <v>-0.188904459</v>
-      </c>
-      <c r="F32">
-        <v>1.0117331519999999</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <v>-0.19527425600000001</v>
-      </c>
-      <c r="F33">
-        <v>1.004784283</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34">
-        <v>-0.20251266100000001</v>
-      </c>
-      <c r="F34">
-        <v>0.99754587800000005</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35">
-        <v>-0.20859292099999999</v>
-      </c>
-      <c r="F35">
-        <v>0.99146561700000002</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36">
-        <v>-0.21467318199999999</v>
-      </c>
-      <c r="F36">
-        <v>0.985674893</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>-0.22162205099999999</v>
-      </c>
-      <c r="F37">
-        <v>0.97872602399999997</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38">
-        <v>-0.23088721000000001</v>
-      </c>
-      <c r="F38">
-        <v>0.96975040099999998</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <v>-0.23783607900000001</v>
-      </c>
-      <c r="F39">
-        <v>0.96251199600000004</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40">
-        <v>-0.24796984699999999</v>
-      </c>
-      <c r="F40">
-        <v>0.95237822800000005</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <v>-0.25636639700000002</v>
-      </c>
-      <c r="F41">
-        <v>0.94485028699999996</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42">
-        <v>-0.26302573000000001</v>
-      </c>
-      <c r="F42">
-        <v>0.93819095399999997</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43">
-        <v>-0.27142228000000002</v>
-      </c>
-      <c r="F43">
-        <v>0.93037347599999998</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44">
-        <v>-0.280397903</v>
-      </c>
-      <c r="F44">
-        <v>0.92168738900000002</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45">
-        <v>-0.290821206</v>
-      </c>
-      <c r="F45">
-        <v>0.91126408599999997</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46">
-        <v>-0.29805961199999997</v>
-      </c>
-      <c r="F46">
-        <v>0.90489428900000002</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47">
-        <v>-0.30848291500000002</v>
-      </c>
-      <c r="F47">
-        <v>0.89533959399999996</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48">
-        <v>-0.31716900199999998</v>
-      </c>
-      <c r="F48">
-        <v>0.88781165200000001</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49">
-        <v>-0.32382833500000002</v>
-      </c>
-      <c r="F49">
-        <v>0.88202092799999998</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50">
-        <v>-0.33135627600000001</v>
-      </c>
-      <c r="F50">
-        <v>0.87507205899999996</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51">
-        <v>-0.33743653699999998</v>
-      </c>
-      <c r="F51">
-        <v>0.869860407</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52">
-        <v>-0.34351679699999998</v>
-      </c>
-      <c r="F52">
-        <v>0.86464875500000005</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53">
-        <v>-0.35162381100000001</v>
-      </c>
-      <c r="F53">
-        <v>0.86030571199999994</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54">
-        <v>-0.36696350900000002</v>
-      </c>
-      <c r="F54">
-        <v>0.85691813299999997</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55">
-        <v>-0.43898398199999999</v>
-      </c>
-      <c r="F55">
-        <v>0.85691815000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56">
-        <v>-0.66303869100000001</v>
-      </c>
-      <c r="F56">
-        <v>0.85691815000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57">
-        <v>-0.91623872799999995</v>
-      </c>
-      <c r="F57">
-        <v>0.85691815000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E58">
-        <v>-1.1543650839999999</v>
-      </c>
-      <c r="F58">
-        <v>0.85691815000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59">
-        <v>-1.1543650839999999</v>
-      </c>
-      <c r="F59">
-        <v>0.95534334600000004</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60">
-        <v>-1.320201065</v>
-      </c>
-      <c r="F60">
-        <v>0.95677905900000004</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61">
-        <v>-2.0383011930000001</v>
-      </c>
-      <c r="F61">
-        <v>0.95677905900000004</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62">
-        <v>-2.742356799</v>
-      </c>
-      <c r="F62">
-        <v>0.95677905900000004</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63">
-        <v>-3.4664625689999999</v>
-      </c>
-      <c r="F63">
-        <v>0.95677905900000004</v>
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-7.9980239859999998</v>
+      </c>
+      <c r="B15">
+        <v>22.605930573999999</v>
+      </c>
+      <c r="C15">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-7.7747317789999997</v>
+      </c>
+      <c r="B16">
+        <v>22.804412536000001</v>
+      </c>
+      <c r="C16">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-7.5156025509999997</v>
+      </c>
+      <c r="B17">
+        <v>23.035974825</v>
+      </c>
+      <c r="C17">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-7.3060938130000004</v>
+      </c>
+      <c r="B18">
+        <v>23.220673316999999</v>
+      </c>
+      <c r="C18">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-7.1076118519999998</v>
+      </c>
+      <c r="B19">
+        <v>23.416398585</v>
+      </c>
+      <c r="C19">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-6.9422102170000004</v>
+      </c>
+      <c r="B20">
+        <v>23.581800220000002</v>
+      </c>
+      <c r="C20">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-6.7823219689999998</v>
+      </c>
+      <c r="B21">
+        <v>23.733418386</v>
+      </c>
+      <c r="C21">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-6.6315113730000004</v>
+      </c>
+      <c r="B22">
+        <v>23.880548566000002</v>
+      </c>
+      <c r="C22">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-6.4304793790000003</v>
+      </c>
+      <c r="B23">
+        <v>24.075996337999999</v>
+      </c>
+      <c r="C23">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-6.1642981280000004</v>
+      </c>
+      <c r="B24">
+        <v>24.340316181999999</v>
+      </c>
+      <c r="C24">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-5.9037010990000001</v>
+      </c>
+      <c r="B25">
+        <v>24.595328988999999</v>
+      </c>
+      <c r="C25">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-5.6673023660000004</v>
+      </c>
+      <c r="B26">
+        <v>24.828004908</v>
+      </c>
+      <c r="C26">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-5.4867458530000004</v>
+      </c>
+      <c r="B27">
+        <v>25.004838606</v>
+      </c>
+      <c r="C27">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-5.2993702669999996</v>
+      </c>
+      <c r="B28">
+        <v>25.188466826999999</v>
+      </c>
+      <c r="C28">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-5.1413872569999999</v>
+      </c>
+      <c r="B29">
+        <v>25.347322672000001</v>
+      </c>
+      <c r="C29">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-5.027045963</v>
+      </c>
+      <c r="B30">
+        <v>25.461663966</v>
+      </c>
+      <c r="C30">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-4.8996121529999996</v>
+      </c>
+      <c r="B31">
+        <v>25.589970610000002</v>
+      </c>
+      <c r="C31">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-4.7800338529999999</v>
+      </c>
+      <c r="B32">
+        <v>25.709548909999999</v>
+      </c>
+      <c r="C32">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-4.7365447840000003</v>
+      </c>
+      <c r="B33">
+        <v>25.753137659</v>
+      </c>
+      <c r="C33">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-4.6882168149999996</v>
+      </c>
+      <c r="B34">
+        <v>25.799697531</v>
+      </c>
+      <c r="C34">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-4.6493186939999998</v>
+      </c>
+      <c r="B35">
+        <v>25.836827554999999</v>
+      </c>
+      <c r="C35">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-4.5962758020000001</v>
+      </c>
+      <c r="B36">
+        <v>25.888102351000001</v>
+      </c>
+      <c r="C36">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-4.553252123</v>
+      </c>
+      <c r="B37">
+        <v>25.928768567999999</v>
+      </c>
+      <c r="C37">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-4.5119965400000002</v>
+      </c>
+      <c r="B38">
+        <v>25.967077324000002</v>
+      </c>
+      <c r="C38">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-4.4695622269999999</v>
+      </c>
+      <c r="B39">
+        <v>26.007743541</v>
+      </c>
+      <c r="C39">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-4.4342002989999996</v>
+      </c>
+      <c r="B40">
+        <v>26.042516104000001</v>
+      </c>
+      <c r="C40">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-4.3953021779999997</v>
+      </c>
+      <c r="B41">
+        <v>26.079646128</v>
+      </c>
+      <c r="C41">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-4.355814691</v>
+      </c>
+      <c r="B42">
+        <v>26.115008056000001</v>
+      </c>
+      <c r="C42">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-4.3205645480000001</v>
+      </c>
+      <c r="B43">
+        <v>26.149278803000001</v>
+      </c>
+      <c r="C43">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-4.2941401179999996</v>
+      </c>
+      <c r="B44">
+        <v>26.174602215</v>
+      </c>
+      <c r="C44">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-4.2633116150000001</v>
+      </c>
+      <c r="B45">
+        <v>26.203779190999999</v>
+      </c>
+      <c r="C45">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-4.2231244600000002</v>
+      </c>
+      <c r="B46">
+        <v>26.241764311000001</v>
+      </c>
+      <c r="C46">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-4.1900939209999999</v>
+      </c>
+      <c r="B47">
+        <v>26.273418577000001</v>
+      </c>
+      <c r="C47">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-4.1598159270000004</v>
+      </c>
+      <c r="B48">
+        <v>26.302870807000001</v>
+      </c>
+      <c r="C48">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-4.1043032960000003</v>
+      </c>
+      <c r="B49">
+        <v>26.355538383999999</v>
+      </c>
+      <c r="C49">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-4.0673110389999998</v>
+      </c>
+      <c r="B50">
+        <v>26.390354057</v>
+      </c>
+      <c r="C50">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-4.037129073</v>
+      </c>
+      <c r="B51">
+        <v>26.419375177999999</v>
+      </c>
+      <c r="C51">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>-3.9984342439999998</v>
+      </c>
+      <c r="B52">
+        <v>26.455361368999998</v>
+      </c>
+      <c r="C52">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>-3.9663175349999999</v>
+      </c>
+      <c r="B53">
+        <v>26.486317233000001</v>
+      </c>
+      <c r="C53">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-3.9197871119999999</v>
+      </c>
+      <c r="B54">
+        <v>26.530486353000001</v>
+      </c>
+      <c r="C54">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>-3.8801845190000002</v>
+      </c>
+      <c r="B55">
+        <v>26.557522738999999</v>
+      </c>
+      <c r="C55">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-3.8413435140000001</v>
+      </c>
+      <c r="B56">
+        <v>26.583416742000001</v>
+      </c>
+      <c r="C56">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-3.7933634490000001</v>
+      </c>
+      <c r="B57">
+        <v>26.615022658000001</v>
+      </c>
+      <c r="C57">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>-3.7480489430000001</v>
+      </c>
+      <c r="B58">
+        <v>26.645486191</v>
+      </c>
+      <c r="C58">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-3.6787139419999999</v>
+      </c>
+      <c r="B59">
+        <v>26.691218352</v>
+      </c>
+      <c r="C59">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>-3.5736951760000002</v>
+      </c>
+      <c r="B60">
+        <v>26.761494067000001</v>
+      </c>
+      <c r="C60">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-3.4734140980000001</v>
+      </c>
+      <c r="B61">
+        <v>26.830190553000001</v>
+      </c>
+      <c r="C61">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-3.3187313559999998</v>
+      </c>
+      <c r="B62">
+        <v>26.932753134999999</v>
+      </c>
+      <c r="C62">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-3.1549505309999999</v>
+      </c>
+      <c r="B63">
+        <v>27.015320328000001</v>
+      </c>
+      <c r="C63">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-3.006058871</v>
+      </c>
+      <c r="B64">
+        <v>27.084351914999999</v>
+      </c>
+      <c r="C64">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-2.8842384230000002</v>
+      </c>
+      <c r="B65">
+        <v>27.141201458000001</v>
+      </c>
+      <c r="C65">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-2.5180004669999998</v>
+      </c>
+      <c r="B66">
+        <v>27.27328207</v>
+      </c>
+      <c r="C66">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-2.2271999739999999</v>
+      </c>
+      <c r="B67">
+        <v>27.3618703</v>
+      </c>
+      <c r="C67">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-1.93639948</v>
+      </c>
+      <c r="B68">
+        <v>27.438903542999999</v>
+      </c>
+      <c r="C68">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>-1.5184941350000001</v>
+      </c>
+      <c r="B69">
+        <v>27.483197658000002</v>
+      </c>
+      <c r="C69">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>-1.210645932</v>
+      </c>
+      <c r="B70">
+        <v>27.515859531</v>
+      </c>
+      <c r="C70">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>-0.86742427499999997</v>
+      </c>
+      <c r="B71">
+        <v>27.489556822000001</v>
+      </c>
+      <c r="C71">
+        <v>33.964573586999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>-0.585391463</v>
+      </c>
+      <c r="B72">
+        <v>27.391431619999999</v>
+      </c>
+      <c r="C72">
+        <f xml:space="preserve"> -3.5867*A72 + 30.862</f>
+        <v>32.961623560342098</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>-0.38418817799999999</v>
+      </c>
+      <c r="B73">
+        <v>27.261633222</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:C75" si="0" xml:space="preserve"> -3.5867*A73 + 30.862</f>
+        <v>32.239967738032597</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>-0.169924099</v>
+      </c>
+      <c r="B74">
+        <v>27.035708512999999</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="0"/>
+        <v>31.471466765883299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>-4.1633846000000002E-2</v>
+      </c>
+      <c r="B75">
+        <v>26.807791585</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="0"/>
+        <v>31.011328115448197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>